--- a/ThesisApp/ChucNang.xlsx
+++ b/ThesisApp/ChucNang.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="140" windowWidth="19140" windowHeight="7090"/>
+    <workbookView windowWidth="18350" windowHeight="6830"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Các chức năng cần làm</t>
   </si>
@@ -30,6 +30,9 @@
     <t>Tình trạng</t>
   </si>
   <si>
+    <t>Chưa làm</t>
+  </si>
+  <si>
     <t>Đã xong</t>
   </si>
   <si>
@@ -48,9 +51,15 @@
     <t>Đổi mật khẩu</t>
   </si>
   <si>
+    <t>Đổi avatar</t>
+  </si>
+  <si>
     <t>Thêm khóa luận</t>
   </si>
   <si>
+    <t>không hiển thị được họ tên gv</t>
+  </si>
+  <si>
     <t>Sửa khóa luận</t>
   </si>
   <si>
@@ -67,35 +76,186 @@
   </si>
   <si>
     <t>Xuất file điểm</t>
-  </si>
-  <si>
-    <t>Đổi avatar</t>
-  </si>
-  <si>
-    <t>Chưa làm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF92D050"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -104,18 +264,210 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -125,57 +477,349 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -466,27 +1110,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="F1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="7" max="7" width="23.08984375" customWidth="1"/>
-    <col min="8" max="8" width="17.453125" customWidth="1"/>
-    <col min="9" max="9" width="17.81640625" customWidth="1"/>
-    <col min="10" max="10" width="17.1796875" customWidth="1"/>
+    <col min="7" max="7" width="23.0909090909091" customWidth="1"/>
+    <col min="8" max="8" width="17.4545454545455" customWidth="1"/>
+    <col min="9" max="9" width="17.8181818181818" customWidth="1"/>
+    <col min="10" max="10" width="31.3636363636364" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="6:10">
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
@@ -495,170 +1139,172 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="6:10" x14ac:dyDescent="0.35">
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="6:10" x14ac:dyDescent="0.35">
-      <c r="F3" s="4" t="s">
+    <row r="2" spans="6:10">
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="6:10">
+      <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="6:10" x14ac:dyDescent="0.35">
-      <c r="F4" s="4"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5" t="s">
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="6:10">
+      <c r="F4" s="3"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="6:10">
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="6:10">
+      <c r="F6" s="4">
+        <v>2</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="6:10">
+      <c r="F7" s="4">
+        <v>3</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="6:10">
+      <c r="F8" s="4">
+        <v>4</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="6:10">
+      <c r="F9" s="4">
+        <v>5</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="6:10">
+      <c r="F10" s="4">
+        <v>6</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="6:10">
+      <c r="F11" s="4">
+        <v>7</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="6:10">
+      <c r="F12" s="4">
+        <v>8</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="6:10">
+      <c r="F13" s="4">
+        <v>9</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="6:10">
+      <c r="F14" s="4">
+        <v>10</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="6:10">
+      <c r="F15" s="4">
+        <v>11</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="6:10" x14ac:dyDescent="0.35">
-      <c r="F5" s="5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="5"/>
-    </row>
-    <row r="6" spans="6:10" x14ac:dyDescent="0.35">
-      <c r="F6" s="5">
-        <v>2</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="5"/>
-    </row>
-    <row r="7" spans="6:10" x14ac:dyDescent="0.35">
-      <c r="F7" s="5">
-        <v>3</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="6:10" x14ac:dyDescent="0.35">
-      <c r="F8" s="5">
-        <v>4</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-    </row>
-    <row r="9" spans="6:10" x14ac:dyDescent="0.35">
-      <c r="F9" s="5">
-        <v>5</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-    </row>
-    <row r="10" spans="6:10" x14ac:dyDescent="0.35">
-      <c r="F10" s="5">
-        <v>6</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-    </row>
-    <row r="11" spans="6:10" x14ac:dyDescent="0.35">
-      <c r="F11" s="5">
-        <v>7</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-    </row>
-    <row r="12" spans="6:10" x14ac:dyDescent="0.35">
-      <c r="F12" s="5">
-        <v>8</v>
-      </c>
-      <c r="G12" s="9" t="s">
+      <c r="H15" s="6"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="6:10">
+      <c r="F16" s="4">
         <v>12</v>
       </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-    </row>
-    <row r="13" spans="6:10" x14ac:dyDescent="0.35">
-      <c r="F13" s="5">
-        <v>9</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="8"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-    </row>
-    <row r="14" spans="6:10" x14ac:dyDescent="0.35">
-      <c r="F14" s="5">
-        <v>10</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="8"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-    </row>
-    <row r="15" spans="6:10" x14ac:dyDescent="0.35">
-      <c r="F15" s="5">
-        <v>11</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="8"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-    </row>
-    <row r="16" spans="6:10" x14ac:dyDescent="0.35">
-      <c r="F16" s="5">
-        <v>12</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="8"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
+      <c r="G16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -666,30 +1312,39 @@
     <mergeCell ref="H3:J3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/ThesisApp/ChucNang.xlsx
+++ b/ThesisApp/ChucNang.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Các chức năng cần làm</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>Đổi avatar</t>
+  </si>
+  <si>
+    <t>phải đăng nhập lại mới hiện avatar mới</t>
   </si>
   <si>
     <t>Thêm khóa luận</t>
@@ -88,7 +91,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,13 +102,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF92D050"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -591,152 +587,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -753,10 +749,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1119,7 +1118,7 @@
   <dimension ref="F1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -1127,7 +1126,7 @@
     <col min="7" max="7" width="23.0909090909091" customWidth="1"/>
     <col min="8" max="8" width="17.4545454545455" customWidth="1"/>
     <col min="9" max="9" width="17.8181818181818" customWidth="1"/>
-    <col min="10" max="10" width="31.3636363636364" customWidth="1"/>
+    <col min="10" max="10" width="35.5454545454545" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:10">
@@ -1180,7 +1179,7 @@
         <v>7</v>
       </c>
       <c r="H5" s="4"/>
-      <c r="I5" s="8"/>
+      <c r="I5" s="9"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="6:10">
@@ -1191,7 +1190,7 @@
         <v>8</v>
       </c>
       <c r="H6" s="4"/>
-      <c r="I6" s="8"/>
+      <c r="I6" s="9"/>
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="6:10">
@@ -1202,7 +1201,7 @@
         <v>9</v>
       </c>
       <c r="H7" s="4"/>
-      <c r="I7" s="9"/>
+      <c r="I7" s="10"/>
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="6:10">
@@ -1213,7 +1212,7 @@
         <v>10</v>
       </c>
       <c r="H8" s="6"/>
-      <c r="I8" s="4"/>
+      <c r="I8" s="10"/>
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="6:10">
@@ -1223,21 +1222,23 @@
       <c r="G9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="10" spans="6:10">
       <c r="F10" s="4">
         <v>6</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="4"/>
-      <c r="J10" s="10" t="s">
-        <v>13</v>
+      <c r="J10" s="11" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="6:10">
@@ -1245,9 +1246,9 @@
         <v>7</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="H11" s="8"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
     </row>
@@ -1256,9 +1257,9 @@
         <v>8</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="6"/>
+        <v>16</v>
+      </c>
+      <c r="H12" s="8"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
     </row>
@@ -1267,9 +1268,9 @@
         <v>9</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="H13" s="8"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
     </row>
@@ -1278,9 +1279,9 @@
         <v>10</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="H14" s="8"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
     </row>
@@ -1289,9 +1290,9 @@
         <v>11</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" s="6"/>
+        <v>19</v>
+      </c>
+      <c r="H15" s="8"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
     </row>
@@ -1300,9 +1301,9 @@
         <v>12</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H16" s="6"/>
+        <v>20</v>
+      </c>
+      <c r="H16" s="8"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
     </row>

--- a/ThesisApp/ChucNang.xlsx
+++ b/ThesisApp/ChucNang.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Các chức năng cần làm</t>
   </si>
@@ -54,13 +54,10 @@
     <t>Đổi avatar</t>
   </si>
   <si>
-    <t>phải đăng nhập lại mới hiện avatar mới</t>
-  </si>
-  <si>
     <t>Thêm khóa luận</t>
   </si>
   <si>
-    <t>không hiển thị được họ tên gv</t>
+    <t>cần truyền gì, lỗi</t>
   </si>
   <si>
     <t>Sửa khóa luận</t>
@@ -69,6 +66,9 @@
     <t>Chấm điểm</t>
   </si>
   <si>
+    <t>lỗi 400 (chung hàm)</t>
+  </si>
+  <si>
     <t>Sửa điểm</t>
   </si>
   <si>
@@ -79,6 +79,30 @@
   </si>
   <si>
     <t>Xuất file điểm</t>
+  </si>
+  <si>
+    <t>Cập nhật khóa luận</t>
+  </si>
+  <si>
+    <t>chuyển trang quá nhanh  =&gt; không tìm thấy chỗ chuyển trang</t>
+  </si>
+  <si>
+    <t>Sửa tên hội đồng</t>
+  </si>
+  <si>
+    <t>Xóa thành viên</t>
+  </si>
+  <si>
+    <t>Xóa hội đồng</t>
+  </si>
+  <si>
+    <t>Button back</t>
+  </si>
+  <si>
+    <t>Lazy loading</t>
+  </si>
+  <si>
+    <t>Fix các lỗi nhỏ</t>
   </si>
 </sst>
 </file>
@@ -463,7 +487,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -481,6 +505,32 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -608,7 +658,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -620,34 +670,34 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -732,7 +782,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -758,6 +808,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -767,6 +819,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1115,10 +1175,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="F1:J16"/>
+  <dimension ref="F1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12:J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -1126,7 +1186,7 @@
     <col min="7" max="7" width="23.0909090909091" customWidth="1"/>
     <col min="8" max="8" width="17.4545454545455" customWidth="1"/>
     <col min="9" max="9" width="17.8181818181818" customWidth="1"/>
-    <col min="10" max="10" width="35.5454545454545" customWidth="1"/>
+    <col min="10" max="10" width="57.6363636363636" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:10">
@@ -1179,7 +1239,7 @@
         <v>7</v>
       </c>
       <c r="H5" s="4"/>
-      <c r="I5" s="9"/>
+      <c r="I5" s="11"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="6:10">
@@ -1190,7 +1250,7 @@
         <v>8</v>
       </c>
       <c r="H6" s="4"/>
-      <c r="I6" s="9"/>
+      <c r="I6" s="11"/>
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="6:10">
@@ -1201,7 +1261,7 @@
         <v>9</v>
       </c>
       <c r="H7" s="4"/>
-      <c r="I7" s="10"/>
+      <c r="I7" s="12"/>
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="6:10">
@@ -1212,7 +1272,7 @@
         <v>10</v>
       </c>
       <c r="H8" s="6"/>
-      <c r="I8" s="10"/>
+      <c r="I8" s="12"/>
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="6:10">
@@ -1222,23 +1282,21 @@
       <c r="G9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="4"/>
     </row>
     <row r="10" spans="6:10">
       <c r="F10" s="4">
         <v>6</v>
       </c>
       <c r="G10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="13" t="s">
         <v>13</v>
-      </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="11" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="11" spans="6:10">
@@ -1246,10 +1304,10 @@
         <v>7</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="12"/>
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="6:10">
@@ -1257,11 +1315,13 @@
         <v>8</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
+      <c r="J12" s="14" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="13" spans="6:10">
       <c r="F13" s="4">
@@ -1272,7 +1332,7 @@
       </c>
       <c r="H13" s="8"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
+      <c r="J13" s="15"/>
     </row>
     <row r="14" spans="6:10">
       <c r="F14" s="4">
@@ -1281,8 +1341,8 @@
       <c r="G14" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H14" s="8"/>
-      <c r="I14" s="4"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="12"/>
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="6:10">
@@ -1292,8 +1352,8 @@
       <c r="G15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H15" s="8"/>
-      <c r="I15" s="4"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="12"/>
       <c r="J15" s="4"/>
     </row>
     <row r="16" spans="6:10">
@@ -1307,10 +1367,90 @@
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
     </row>
+    <row r="17" spans="6:10">
+      <c r="F17" s="4">
+        <v>13</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="9"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="6:10">
+      <c r="F18" s="4">
+        <v>14</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="9"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="9"/>
+    </row>
+    <row r="19" spans="6:10">
+      <c r="F19" s="4">
+        <v>15</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="10"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+    </row>
+    <row r="20" spans="6:10">
+      <c r="F20" s="4">
+        <v>16</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="10"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+    </row>
+    <row r="21" spans="6:10">
+      <c r="F21" s="4">
+        <v>17</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" s="10"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+    </row>
+    <row r="22" spans="6:10">
+      <c r="F22" s="4">
+        <v>18</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" s="10"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+    </row>
+    <row r="23" spans="6:10">
+      <c r="F23" s="4">
+        <v>19</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23" s="10"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="F1:J1"/>
     <mergeCell ref="H3:J3"/>
+    <mergeCell ref="J12:J13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
